--- a/SampleApp - Copy.xlsx
+++ b/SampleApp - Copy.xlsx
@@ -2,20 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\W&amp;S\CDVD\C#\SampleApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11592" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="spec" sheetId="1" r:id="rId1"/>
     <sheet name="version 1" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="106">
   <si>
     <t>_</t>
   </si>
@@ -380,12 +381,36 @@
   <si>
     <t>EXCERSICE 30%</t>
   </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Trainers (Manual, TA, Selenium)</t>
+  </si>
+  <si>
+    <t>Time (From - To)</t>
+  </si>
+  <si>
+    <t>Add or Remove row(s)</t>
+  </si>
+  <si>
+    <t>Status (Planning, Running, Closed)</t>
+  </si>
+  <si>
+    <t>Create - Edit - Update a new course</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +472,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1239,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1388,6 +1428,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,7 +1484,7 @@
         <xdr:cNvPr id="5" name="Group 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33BA7563-27D7-4170-B6B9-D2505ED81F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BA7563-27D7-4170-B6B9-D2505ED81F1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1492,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9301383" y="305042"/>
+          <a:off x="9523357" y="299741"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -1445,7 +1503,7 @@
           <xdr:cNvPr id="3" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC065B99-C836-4E42-A7E0-5CE37C038B74}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC065B99-C836-4E42-A7E0-5CE37C038B74}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1546,7 @@
           <xdr:cNvPr id="4" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1889568E-D442-4178-BCAD-8721FDC90907}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1889568E-D442-4178-BCAD-8721FDC90907}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1547,7 +1605,7 @@
         <xdr:cNvPr id="6" name="Group 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA97B173-A9D4-4BDB-A10E-BAD7BE139E66}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA97B173-A9D4-4BDB-A10E-BAD7BE139E66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1555,7 +1613,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20157335" y="305042"/>
+          <a:off x="20627456" y="299741"/>
           <a:ext cx="127110" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -1566,7 +1624,7 @@
           <xdr:cNvPr id="7" name="Rectangle 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1D33C92E-FB1F-418B-AAC0-CCAC5360E35D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D33C92E-FB1F-418B-AAC0-CCAC5360E35D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1609,7 +1667,7 @@
           <xdr:cNvPr id="8" name="Rectangle 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{85C327C4-2163-43E4-9BD6-06056EAE45A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C327C4-2163-43E4-9BD6-06056EAE45A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1668,7 +1726,7 @@
         <xdr:cNvPr id="11" name="Group 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{77EB269A-6BB8-43CA-9036-B3DD44C364D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77EB269A-6BB8-43CA-9036-B3DD44C364D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,8 +1734,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13918095" y="1883466"/>
-          <a:ext cx="170622" cy="129208"/>
+          <a:off x="14238135" y="1846360"/>
+          <a:ext cx="177248" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
         </a:xfrm>
@@ -1687,7 +1745,7 @@
           <xdr:cNvPr id="9" name="Flowchart: Merge 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A1EDC465-A3C0-4DAF-93A8-E378861632B0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EDC465-A3C0-4DAF-93A8-E378861632B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1744,7 +1802,7 @@
           <xdr:cNvPr id="10" name="Flowchart: Merge 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC7E174B-0D68-4366-9DD2-36D1745737EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7E174B-0D68-4366-9DD2-36D1745737EE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1817,7 +1875,7 @@
         <xdr:cNvPr id="12" name="Group 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3FCEA7CD-89CD-44F7-B928-ED522D2503F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCEA7CD-89CD-44F7-B928-ED522D2503F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1825,8 +1883,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14888945" y="1892576"/>
-          <a:ext cx="170622" cy="129208"/>
+          <a:off x="15228863" y="1855470"/>
+          <a:ext cx="177248" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
         </a:xfrm>
@@ -1836,7 +1894,7 @@
           <xdr:cNvPr id="13" name="Flowchart: Merge 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27F195AE-9F83-4A45-A597-D1203A5F59A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F195AE-9F83-4A45-A597-D1203A5F59A1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1893,7 +1951,7 @@
           <xdr:cNvPr id="14" name="Flowchart: Merge 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9E72742-83E5-4DB4-B5D1-4CE381FACB90}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E72742-83E5-4DB4-B5D1-4CE381FACB90}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1966,7 +2024,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1E90729-FC7A-43DA-9391-5D734B06B521}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E90729-FC7A-43DA-9391-5D734B06B521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,8 +2032,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15477966" y="1885248"/>
-          <a:ext cx="170621" cy="129208"/>
+          <a:off x="15831136" y="1848142"/>
+          <a:ext cx="177248" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
         </a:xfrm>
@@ -1985,7 +2043,7 @@
           <xdr:cNvPr id="16" name="Flowchart: Merge 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0D7945A-B4B0-4750-9D00-536DEFBB0253}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D7945A-B4B0-4750-9D00-536DEFBB0253}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2042,7 +2100,7 @@
           <xdr:cNvPr id="17" name="Flowchart: Merge 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5C1025A-F088-4EAA-8AB0-2D2B5CFEF59D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C1025A-F088-4EAA-8AB0-2D2B5CFEF59D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2115,7 +2173,7 @@
         <xdr:cNvPr id="18" name="Group 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE1719B2-E9D1-4E20-897E-715823F7FD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1719B2-E9D1-4E20-897E-715823F7FD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2123,8 +2181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17572510" y="1892576"/>
-          <a:ext cx="170623" cy="129208"/>
+          <a:off x="17972063" y="1855470"/>
+          <a:ext cx="177249" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
         </a:xfrm>
@@ -2134,7 +2192,7 @@
           <xdr:cNvPr id="19" name="Flowchart: Merge 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8CEB5C26-F54D-4CC5-A9D3-4D059819A7C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CEB5C26-F54D-4CC5-A9D3-4D059819A7C4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2191,7 +2249,7 @@
           <xdr:cNvPr id="20" name="Flowchart: Merge 19">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A2EBCC8-9C45-48F3-924B-3FDA2353B363}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A2EBCC8-9C45-48F3-924B-3FDA2353B363}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2264,7 +2322,7 @@
         <xdr:cNvPr id="21" name="Group 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94242AF2-CED7-4A60-BDDE-36326254DF96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94242AF2-CED7-4A60-BDDE-36326254DF96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2272,7 +2330,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18462255" y="1863270"/>
+          <a:off x="18892619" y="1826164"/>
           <a:ext cx="165525" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
@@ -2283,7 +2341,7 @@
           <xdr:cNvPr id="22" name="Flowchart: Merge 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87C0B817-7D9C-44C7-A06B-ED38533DB050}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87C0B817-7D9C-44C7-A06B-ED38533DB050}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2340,7 +2398,7 @@
           <xdr:cNvPr id="23" name="Flowchart: Merge 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6ACCA8D4-FB59-4779-9B04-781E642D03EE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ACCA8D4-FB59-4779-9B04-781E642D03EE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2413,7 +2471,7 @@
         <xdr:cNvPr id="24" name="Group 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{603E129A-39D2-4B72-B4A6-944035B1EE54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{603E129A-39D2-4B72-B4A6-944035B1EE54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2479,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9301383" y="5953781"/>
+          <a:off x="9523357" y="5824241"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -2432,7 +2490,7 @@
           <xdr:cNvPr id="25" name="Rectangle 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9B7D473-D707-4B8F-865D-FC9BD6514CBF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B7D473-D707-4B8F-865D-FC9BD6514CBF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2475,7 +2533,7 @@
           <xdr:cNvPr id="26" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF23812D-34BB-4053-9770-AA38A723B06C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF23812D-34BB-4053-9770-AA38A723B06C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2534,7 +2592,7 @@
         <xdr:cNvPr id="60" name="Picture 59">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2A97B30D-D1DA-4E02-B1F4-BDEB77613B4D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A97B30D-D1DA-4E02-B1F4-BDEB77613B4D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2573,7 +2631,7 @@
         <xdr:cNvPr id="61" name="Picture 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{993F2F91-AF3D-4E9D-8873-1E1D8E7FD52B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993F2F91-AF3D-4E9D-8873-1E1D8E7FD52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2675,7 @@
         <xdr:cNvPr id="62" name="Group 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA45ECEC-29C3-4D0F-9AAB-AF36FEA47885}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA45ECEC-29C3-4D0F-9AAB-AF36FEA47885}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2683,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19604948" y="5953781"/>
+          <a:off x="20061817" y="5824241"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -2636,7 +2694,7 @@
           <xdr:cNvPr id="63" name="Rectangle 62">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6A9C7ED-3ADB-4A8D-99EB-757F671FA345}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A9C7ED-3ADB-4A8D-99EB-757F671FA345}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2679,7 +2737,7 @@
           <xdr:cNvPr id="64" name="Rectangle 63">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06D1DCE8-B26E-4D17-8E62-1658CF08184E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D1DCE8-B26E-4D17-8E62-1658CF08184E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2733,7 +2791,7 @@
         <xdr:cNvPr id="65" name="Picture 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDB05867-8D8F-4BAB-AC90-6C8B227EAC4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDB05867-8D8F-4BAB-AC90-6C8B227EAC4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2772,7 +2830,7 @@
         <xdr:cNvPr id="66" name="Picture 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6E74B27-2BD6-41C1-B865-97D44D0FE4CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E74B27-2BD6-41C1-B865-97D44D0FE4CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2816,7 +2874,7 @@
         <xdr:cNvPr id="67" name="Group 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{20E85CFD-761D-4CFF-947E-8E3B2A033E2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20E85CFD-761D-4CFF-947E-8E3B2A033E2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2882,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9301383" y="11859281"/>
+          <a:off x="9523357" y="11607821"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -2835,7 +2893,7 @@
           <xdr:cNvPr id="68" name="Rectangle 67">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DBD44A8C-09AD-4A25-A454-D35A5D6AA7A1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD44A8C-09AD-4A25-A454-D35A5D6AA7A1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2878,7 +2936,7 @@
           <xdr:cNvPr id="69" name="Rectangle 68">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE37087-75CA-4224-B146-BEB5F52BB024}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE37087-75CA-4224-B146-BEB5F52BB024}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2937,7 +2995,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B801BAE4-B57B-449F-AB0D-B2D8BC93F84A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B801BAE4-B57B-449F-AB0D-B2D8BC93F84A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3005,7 +3063,7 @@
         <xdr:cNvPr id="37" name="Speech Bubble: Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B67A70F-E7E6-4850-AC2C-81AEB7AD4C0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B67A70F-E7E6-4850-AC2C-81AEB7AD4C0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3159,7 @@
         <xdr:cNvPr id="38" name="Speech Bubble: Rectangle 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9EDA4565-B990-44F2-9BBD-3D9D1A3D0BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EDA4565-B990-44F2-9BBD-3D9D1A3D0BDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3185,7 +3243,7 @@
         <xdr:cNvPr id="39" name="Group 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93E5D90B-FEB4-481F-AB34-6CB767DFBFCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93E5D90B-FEB4-481F-AB34-6CB767DFBFCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3251,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19604948" y="11859281"/>
+          <a:off x="20061817" y="11607821"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -3204,7 +3262,7 @@
           <xdr:cNvPr id="40" name="Rectangle 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B4F9FC44-6138-4556-92F4-D1C71961552A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F9FC44-6138-4556-92F4-D1C71961552A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3247,7 +3305,7 @@
           <xdr:cNvPr id="41" name="Rectangle 40">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA4556B2-6D48-4292-A067-756E016E0061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4556B2-6D48-4292-A067-756E016E0061}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3306,7 +3364,7 @@
         <xdr:cNvPr id="27" name="Speech Bubble: Rectangle 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6ABE1BB-BFFB-43D5-8C3E-E0035A4D3EB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6ABE1BB-BFFB-43D5-8C3E-E0035A4D3EB2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3369,7 +3427,7 @@
         <xdr:cNvPr id="43" name="Speech Bubble: Rectangle 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DAFA0CCF-47FC-4C03-AABD-04AD1FA6EC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAFA0CCF-47FC-4C03-AABD-04AD1FA6EC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3440,7 +3498,7 @@
         <xdr:cNvPr id="44" name="Speech Bubble: Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8C6C90DC-F260-4AC7-8654-80629A2D1B63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C6C90DC-F260-4AC7-8654-80629A2D1B63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3511,7 +3569,7 @@
         <xdr:cNvPr id="45" name="Speech Bubble: Rectangle 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4860189-3801-4652-9117-166C7C294937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4860189-3801-4652-9117-166C7C294937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3657,7 @@
         <xdr:cNvPr id="46" name="Group 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C92E589-E655-4CC0-B184-F1904401523B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C92E589-E655-4CC0-B184-F1904401523B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3607,7 +3665,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19029293" y="1877921"/>
+          <a:off x="19472910" y="1840815"/>
           <a:ext cx="165525" cy="129208"/>
           <a:chOff x="15442095" y="1878031"/>
           <a:chExt cx="170104" cy="129208"/>
@@ -3618,7 +3676,7 @@
           <xdr:cNvPr id="47" name="Flowchart: Merge 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF242D46-EF6E-4CE7-81D4-8E3517F36CE6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF242D46-EF6E-4CE7-81D4-8E3517F36CE6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3675,7 +3733,7 @@
           <xdr:cNvPr id="48" name="Flowchart: Merge 47">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9036FF58-4F54-45AA-AE34-0A22132FD0A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9036FF58-4F54-45AA-AE34-0A22132FD0A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3748,7 +3806,7 @@
         <xdr:cNvPr id="49" name="Speech Bubble: Rectangle 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7927CCEA-6810-4983-828C-3B59D99CA92C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7927CCEA-6810-4983-828C-3B59D99CA92C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3815,7 +3873,7 @@
         <xdr:cNvPr id="50" name="Speech Bubble: Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BC088DC-549C-4E9E-9340-274D229651E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BC088DC-549C-4E9E-9340-274D229651E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3902,7 +3960,7 @@
         <xdr:cNvPr id="51" name="Speech Bubble: Rectangle 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DEDF8BE-2F90-43FA-B01E-0304E0A84BBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEDF8BE-2F90-43FA-B01E-0304E0A84BBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4002,7 +4060,7 @@
         <xdr:cNvPr id="52" name="Speech Bubble: Rectangle 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40E76D08-B6AF-4F66-A52D-D8B9DCDEB2E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40E76D08-B6AF-4F66-A52D-D8B9DCDEB2E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4110,7 +4168,7 @@
         <xdr:cNvPr id="53" name="Speech Bubble: Rectangle 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C839CBDC-580B-4C42-8979-F85694E15459}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C839CBDC-580B-4C42-8979-F85694E15459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4210,7 +4268,7 @@
         <xdr:cNvPr id="55" name="Speech Bubble: Rectangle 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{06769081-3114-4F7A-BBDE-D054693AD6CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06769081-3114-4F7A-BBDE-D054693AD6CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4320,7 +4378,7 @@
         <xdr:cNvPr id="56" name="Speech Bubble: Rectangle 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{27D9E306-2C59-422A-9A6D-C091FF4B1E13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D9E306-2C59-422A-9A6D-C091FF4B1E13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4400,7 +4458,7 @@
         <xdr:cNvPr id="58" name="Group 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35C82EEA-34F3-421D-8663-CC81CB274A71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C82EEA-34F3-421D-8663-CC81CB274A71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +4466,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="19604948" y="17251259"/>
+          <a:off x="20061817" y="16888481"/>
           <a:ext cx="184260" cy="165210"/>
           <a:chOff x="11458573" y="540954"/>
           <a:chExt cx="184260" cy="165210"/>
@@ -4419,7 +4477,7 @@
           <xdr:cNvPr id="59" name="Rectangle 58">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C7E309A3-23E7-42BC-9089-C7A4387DD827}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E309A3-23E7-42BC-9089-C7A4387DD827}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4462,7 +4520,7 @@
           <xdr:cNvPr id="70" name="Rectangle 69">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{78D9DA31-0A9C-4FA2-BE5E-84A31EC3FA2F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D9DA31-0A9C-4FA2-BE5E-84A31EC3FA2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4521,7 +4579,7 @@
         <xdr:cNvPr id="28" name="Rectangle: Rounded Corners 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41E663BC-6D4C-4466-894F-AD7D6A20EB6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E663BC-6D4C-4466-894F-AD7D6A20EB6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4642,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DE23BB9-8EC8-4286-89F2-B0815FFA27B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DE23BB9-8EC8-4286-89F2-B0815FFA27B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4707,7 @@
         <xdr:cNvPr id="71" name="Rectangle: Rounded Corners 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{88C2112B-14C4-4088-AA40-53387F2B551E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C2112B-14C4-4088-AA40-53387F2B551E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4712,7 +4770,7 @@
         <xdr:cNvPr id="72" name="TextBox 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56A5488C-DEF0-4559-BFB7-4384337960EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A5488C-DEF0-4559-BFB7-4384337960EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4777,7 +4835,7 @@
         <xdr:cNvPr id="73" name="Rectangle: Rounded Corners 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CA486160-E3DF-44CB-BF75-EAE8C7A74A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA486160-E3DF-44CB-BF75-EAE8C7A74A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4840,7 +4898,7 @@
         <xdr:cNvPr id="74" name="TextBox 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6C3A0BA-56AB-449F-BD20-347BFEBE0AFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C3A0BA-56AB-449F-BD20-347BFEBE0AFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4905,7 +4963,7 @@
         <xdr:cNvPr id="75" name="Rectangle: Rounded Corners 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1ACC11AB-C9C3-464C-B847-4B42445BCBB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACC11AB-C9C3-464C-B847-4B42445BCBB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4968,7 +5026,7 @@
         <xdr:cNvPr id="76" name="TextBox 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0371EE40-DE97-477F-8B6D-C155B7B240BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0371EE40-DE97-477F-8B6D-C155B7B240BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5033,7 +5091,7 @@
         <xdr:cNvPr id="77" name="Rectangle: Rounded Corners 76">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FFA2F885-DAD9-48A5-A723-27A98405CD75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFA2F885-DAD9-48A5-A723-27A98405CD75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5096,7 +5154,7 @@
         <xdr:cNvPr id="78" name="TextBox 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{81140E9C-725E-4AEF-9411-54FE66C67CCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81140E9C-725E-4AEF-9411-54FE66C67CCC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5161,7 +5219,7 @@
         <xdr:cNvPr id="79" name="Speech Bubble: Rectangle 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D99CB22-80F9-46DF-8E76-A878A61187BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D99CB22-80F9-46DF-8E76-A878A61187BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5261,7 +5319,7 @@
         <xdr:cNvPr id="80" name="Speech Bubble: Rectangle 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3377623F-F65F-4B1A-AB34-6C545FF494BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3377623F-F65F-4B1A-AB34-6C545FF494BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,7 +5396,7 @@
         <xdr:cNvPr id="81" name="Speech Bubble: Rectangle 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9CB590A0-634C-4A63-A0B3-927B0043AAF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB590A0-634C-4A63-A0B3-927B0043AAF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5419,7 +5477,7 @@
         <xdr:cNvPr id="83" name="Speech Bubble: Rectangle 82">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{51ED3F9D-5143-4D95-935C-0FD4DB4C729E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51ED3F9D-5143-4D95-935C-0FD4DB4C729E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5540,7 +5598,7 @@
         <xdr:cNvPr id="84" name="Speech Bubble: Rectangle 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32AEFC9B-45C6-429D-B9A9-75EEDA718978}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32AEFC9B-45C6-429D-B9A9-75EEDA718978}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5875,25 +5933,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70:V70"/>
+    <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM75" sqref="AM75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.42578125" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.44140625" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
     <col min="5" max="5" width="4" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="20" max="20" width="4.140625" customWidth="1"/>
-    <col min="22" max="22" width="2.85546875" customWidth="1"/>
-    <col min="27" max="27" width="3.42578125" customWidth="1"/>
-    <col min="30" max="30" width="4.42578125" customWidth="1"/>
-    <col min="36" max="36" width="4.7109375" customWidth="1"/>
-    <col min="62" max="62" width="2.28515625" customWidth="1"/>
+    <col min="15" max="15" width="3.88671875" customWidth="1"/>
+    <col min="20" max="20" width="4.109375" customWidth="1"/>
+    <col min="22" max="22" width="2.88671875" customWidth="1"/>
+    <col min="27" max="27" width="3.44140625" customWidth="1"/>
+    <col min="30" max="30" width="4.44140625" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" customWidth="1"/>
+    <col min="62" max="62" width="2.33203125" customWidth="1"/>
     <col min="70" max="70" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2">
         <v>1</v>
       </c>
@@ -5938,7 +5996,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="13" t="s">
         <v>72</v>
@@ -6021,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
@@ -6105,7 +6163,7 @@
       <c r="BR3" s="22"/>
       <c r="BS3" s="23"/>
     </row>
-    <row r="4" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6177,7 +6235,7 @@
       <c r="BR4" s="1"/>
       <c r="BS4" s="5"/>
     </row>
-    <row r="5" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6260,7 +6318,7 @@
       <c r="BR5" s="1"/>
       <c r="BS5" s="5"/>
     </row>
-    <row r="6" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6336,7 +6394,7 @@
       <c r="BR6" s="1"/>
       <c r="BS6" s="5"/>
     </row>
-    <row r="7" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6362,7 +6420,7 @@
       <c r="BR7" s="38"/>
       <c r="BS7" s="5"/>
     </row>
-    <row r="8" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6438,7 +6496,7 @@
       </c>
       <c r="BS8" s="5"/>
     </row>
-    <row r="9" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6502,7 +6560,7 @@
       <c r="BR9" s="67"/>
       <c r="BS9" s="5"/>
     </row>
-    <row r="10" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6576,7 +6634,7 @@
       <c r="BR10" s="67"/>
       <c r="BS10" s="5"/>
     </row>
-    <row r="11" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6654,7 +6712,7 @@
       <c r="BR11" s="67"/>
       <c r="BS11" s="5"/>
     </row>
-    <row r="12" spans="1:71" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6722,7 +6780,7 @@
       <c r="BR12" s="67"/>
       <c r="BS12" s="5"/>
     </row>
-    <row r="13" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6798,7 +6856,7 @@
       <c r="BR13" s="67"/>
       <c r="BS13" s="5"/>
     </row>
-    <row r="14" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6870,7 +6928,7 @@
       <c r="BR14" s="67"/>
       <c r="BS14" s="5"/>
     </row>
-    <row r="15" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6946,7 +7004,7 @@
       <c r="BR15" s="67"/>
       <c r="BS15" s="5"/>
     </row>
-    <row r="16" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -7018,7 +7076,7 @@
       <c r="BR16" s="67"/>
       <c r="BS16" s="5"/>
     </row>
-    <row r="17" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -7090,7 +7148,7 @@
       <c r="BR17" s="67"/>
       <c r="BS17" s="5"/>
     </row>
-    <row r="18" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7162,7 +7220,7 @@
       <c r="BR18" s="67"/>
       <c r="BS18" s="5"/>
     </row>
-    <row r="19" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7234,7 +7292,7 @@
       <c r="BR19" s="68"/>
       <c r="BS19" s="5"/>
     </row>
-    <row r="20" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -7308,7 +7366,7 @@
       </c>
       <c r="BS20" s="5"/>
     </row>
-    <row r="21" spans="1:71" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -7384,7 +7442,7 @@
       <c r="BR21" s="63"/>
       <c r="BS21" s="5"/>
     </row>
-    <row r="22" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7456,7 +7514,7 @@
       <c r="BR22" s="6"/>
       <c r="BS22" s="7"/>
     </row>
-    <row r="24" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
@@ -7476,7 +7534,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25"/>
       <c r="B25" s="13" t="s">
         <v>72</v>
@@ -7558,7 +7616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="20" t="s">
         <v>2</v>
@@ -7640,7 +7698,7 @@
       <c r="BP26" s="22"/>
       <c r="BQ26" s="23"/>
     </row>
-    <row r="27" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="25"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -7714,7 +7772,7 @@
       <c r="BP27" s="1"/>
       <c r="BQ27" s="5"/>
     </row>
-    <row r="28" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="25"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -7794,7 +7852,7 @@
       <c r="BP28" s="1"/>
       <c r="BQ28" s="5"/>
     </row>
-    <row r="29" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
@@ -7868,7 +7926,7 @@
       <c r="BP29" s="1"/>
       <c r="BQ29" s="5"/>
     </row>
-    <row r="30" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -7955,7 +8013,7 @@
       <c r="BP30" s="1"/>
       <c r="BQ30" s="5"/>
     </row>
-    <row r="31" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="25"/>
       <c r="B31" s="35"/>
       <c r="C31" s="1"/>
@@ -8027,7 +8085,7 @@
       <c r="BP31" s="1"/>
       <c r="BQ31" s="5"/>
     </row>
-    <row r="32" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="25"/>
       <c r="B32" s="35"/>
       <c r="C32" s="1"/>
@@ -8103,7 +8161,7 @@
       <c r="BP32" s="1"/>
       <c r="BQ32" s="5"/>
     </row>
-    <row r="33" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="35"/>
       <c r="C33" s="1" t="s">
@@ -8177,7 +8235,7 @@
       <c r="BP33" s="1"/>
       <c r="BQ33" s="5"/>
     </row>
-    <row r="34" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="35"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -8264,7 +8322,7 @@
       <c r="BP34" s="1"/>
       <c r="BQ34" s="5"/>
     </row>
-    <row r="35" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -8347,7 +8405,7 @@
       <c r="BP35" s="1"/>
       <c r="BQ35" s="5"/>
     </row>
-    <row r="36" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -8430,7 +8488,7 @@
       <c r="BP36" s="1"/>
       <c r="BQ36" s="5"/>
     </row>
-    <row r="37" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -8505,7 +8563,7 @@
       <c r="BP37" s="1"/>
       <c r="BQ37" s="5"/>
     </row>
-    <row r="38" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="35"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -8580,7 +8638,7 @@
       <c r="BP38" s="1"/>
       <c r="BQ38" s="5"/>
     </row>
-    <row r="39" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -8655,7 +8713,7 @@
       <c r="BP39" s="1"/>
       <c r="BQ39" s="5"/>
     </row>
-    <row r="40" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -8730,7 +8788,7 @@
       <c r="BP40" s="1"/>
       <c r="BQ40" s="5"/>
     </row>
-    <row r="41" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="35"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -8805,7 +8863,7 @@
       <c r="BP41" s="1"/>
       <c r="BQ41" s="5"/>
     </row>
-    <row r="42" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="35"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -8874,7 +8932,7 @@
       <c r="BP42" s="1"/>
       <c r="BQ42" s="5"/>
     </row>
-    <row r="43" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -8951,7 +9009,7 @@
       <c r="BP43" s="1"/>
       <c r="BQ43" s="5"/>
     </row>
-    <row r="44" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="35"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -9020,7 +9078,7 @@
       <c r="BP44" s="1"/>
       <c r="BQ44" s="5"/>
     </row>
-    <row r="45" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="25"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -9090,7 +9148,7 @@
       <c r="BP45" s="6"/>
       <c r="BQ45" s="7"/>
     </row>
-    <row r="47" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>3</v>
       </c>
@@ -9104,7 +9162,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25"/>
       <c r="B48" s="13" t="s">
         <v>72</v>
@@ -9185,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="20" t="s">
         <v>2</v>
@@ -9267,7 +9325,7 @@
       <c r="BP49" s="22"/>
       <c r="BQ49" s="23"/>
     </row>
-    <row r="50" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="25"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -9343,7 +9401,7 @@
       <c r="BP50" s="1"/>
       <c r="BQ50" s="5"/>
     </row>
-    <row r="51" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="25"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -9426,7 +9484,7 @@
       <c r="BP51" s="19"/>
       <c r="BQ51" s="5"/>
     </row>
-    <row r="52" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="1"/>
       <c r="C52" t="s">
@@ -9496,7 +9554,7 @@
       <c r="BP52" s="1"/>
       <c r="BQ52" s="5"/>
     </row>
-    <row r="53" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25"/>
       <c r="B53" s="1"/>
       <c r="C53" s="42" t="s">
@@ -9582,7 +9640,7 @@
       <c r="BP53" s="2"/>
       <c r="BQ53" s="5"/>
     </row>
-    <row r="54" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="1"/>
@@ -9650,7 +9708,7 @@
       <c r="BP54" s="53"/>
       <c r="BQ54" s="5"/>
     </row>
-    <row r="55" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="35"/>
       <c r="C55" s="35"/>
       <c r="D55" s="85" t="s">
@@ -9750,7 +9808,7 @@
       <c r="BP55" s="3"/>
       <c r="BQ55" s="5"/>
     </row>
-    <row r="56" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
       <c r="D56" s="8" t="s">
@@ -9826,7 +9884,7 @@
       <c r="BP56" s="3"/>
       <c r="BQ56" s="5"/>
     </row>
-    <row r="57" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="35"/>
       <c r="C57" s="35"/>
       <c r="D57" s="8" t="s">
@@ -9902,7 +9960,7 @@
       <c r="BP57" s="3"/>
       <c r="BQ57" s="5"/>
     </row>
-    <row r="58" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
       <c r="D58" s="8" t="s">
@@ -9978,7 +10036,7 @@
       <c r="BP58" s="3"/>
       <c r="BQ58" s="5"/>
     </row>
-    <row r="59" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
       <c r="D59" s="8"/>
@@ -10046,7 +10104,7 @@
       <c r="BP59" s="3"/>
       <c r="BQ59" s="5"/>
     </row>
-    <row r="60" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
       <c r="D60" s="8"/>
@@ -10114,7 +10172,7 @@
       <c r="BP60" s="3"/>
       <c r="BQ60" s="5"/>
     </row>
-    <row r="61" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
       <c r="D61" s="8"/>
@@ -10182,7 +10240,7 @@
       <c r="BP61" s="3"/>
       <c r="BQ61" s="5"/>
     </row>
-    <row r="62" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
       <c r="D62" s="8"/>
@@ -10250,7 +10308,7 @@
       <c r="BP62" s="3"/>
       <c r="BQ62" s="5"/>
     </row>
-    <row r="63" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
       <c r="D63" s="1"/>
@@ -10270,7 +10328,7 @@
       <c r="BP63" s="3"/>
       <c r="BQ63" s="5"/>
     </row>
-    <row r="64" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="1"/>
@@ -10290,7 +10348,7 @@
       <c r="BP64" s="3"/>
       <c r="BQ64" s="5"/>
     </row>
-    <row r="65" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="35"/>
       <c r="C65" s="52"/>
       <c r="D65" s="2"/>
@@ -10358,7 +10416,7 @@
       <c r="BP65" s="4"/>
       <c r="BQ65" s="5"/>
     </row>
-    <row r="66" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="25"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -10428,7 +10486,7 @@
       <c r="BP66" s="6"/>
       <c r="BQ66" s="7"/>
     </row>
-    <row r="67" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F67" s="72"/>
       <c r="G67" s="72"/>
       <c r="H67" s="72"/>
@@ -10438,7 +10496,7 @@
       <c r="L67" s="72"/>
       <c r="M67" s="72"/>
     </row>
-    <row r="68" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="73" t="s">
         <v>15</v>
       </c>
@@ -10482,7 +10540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="35"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -10557,7 +10615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C70" s="35"/>
       <c r="D70" s="85" t="s">
         <v>13</v>
@@ -10643,7 +10701,7 @@
       <c r="BP70" s="22"/>
       <c r="BQ70" s="23"/>
     </row>
-    <row r="71" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C71" s="35"/>
       <c r="D71" s="8" t="s">
         <v>22</v>
@@ -10715,7 +10773,7 @@
       <c r="BP71" s="1"/>
       <c r="BQ71" s="5"/>
     </row>
-    <row r="72" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="35"/>
       <c r="D72" s="8" t="s">
         <v>25</v>
@@ -10779,7 +10837,7 @@
       <c r="BP72" s="1"/>
       <c r="BQ72" s="5"/>
     </row>
-    <row r="73" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C73" s="35"/>
       <c r="D73" s="8" t="s">
         <v>26</v>
@@ -10847,7 +10905,7 @@
       <c r="BP73" s="1"/>
       <c r="BQ73" s="5"/>
     </row>
-    <row r="74" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C74" s="35"/>
       <c r="D74" s="8"/>
       <c r="E74" s="9"/>
@@ -10881,7 +10939,7 @@
       <c r="AJ74" s="25"/>
       <c r="BQ74" s="5"/>
     </row>
-    <row r="75" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C75" s="35"/>
       <c r="D75" s="8"/>
       <c r="E75" s="9"/>
@@ -10929,7 +10987,7 @@
       <c r="AX75" s="10"/>
       <c r="BQ75" s="5"/>
     </row>
-    <row r="76" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="35"/>
       <c r="D76" s="8"/>
       <c r="E76" s="9"/>
@@ -10963,7 +11021,7 @@
       <c r="AJ76" s="25"/>
       <c r="BQ76" s="5"/>
     </row>
-    <row r="77" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C77" s="35"/>
       <c r="D77" s="8"/>
       <c r="E77" s="9"/>
@@ -10997,7 +11055,7 @@
       <c r="AJ77" s="25"/>
       <c r="BQ77" s="5"/>
     </row>
-    <row r="78" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C78" s="35"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -11031,7 +11089,7 @@
       <c r="BE78" s="10"/>
       <c r="BQ78" s="5"/>
     </row>
-    <row r="79" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="35"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -11043,7 +11101,7 @@
       <c r="BB79" s="1"/>
       <c r="BQ79" s="5"/>
     </row>
-    <row r="80" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="52"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -11078,7 +11136,7 @@
       <c r="AJ80" s="25"/>
       <c r="BQ80" s="5"/>
     </row>
-    <row r="81" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I81" s="81"/>
       <c r="J81" s="81"/>
       <c r="K81" s="81"/>
@@ -11087,7 +11145,7 @@
       <c r="AJ81" s="25"/>
       <c r="BQ81" s="5"/>
     </row>
-    <row r="82" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C82" s="73" t="s">
         <v>15</v>
       </c>
@@ -11144,7 +11202,7 @@
       <c r="AX82" s="10"/>
       <c r="BQ82" s="5"/>
     </row>
-    <row r="83" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="35"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -11179,7 +11237,7 @@
       <c r="AJ83" s="25"/>
       <c r="BQ83" s="5"/>
     </row>
-    <row r="84" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="35"/>
       <c r="D84" s="85" t="s">
         <v>13</v>
@@ -11225,7 +11283,7 @@
       <c r="AJ84" s="25"/>
       <c r="BQ84" s="5"/>
     </row>
-    <row r="85" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C85" s="35"/>
       <c r="D85" s="8" t="s">
         <v>22</v>
@@ -11277,7 +11335,7 @@
       <c r="AX85" s="10"/>
       <c r="BQ85" s="5"/>
     </row>
-    <row r="86" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C86" s="35"/>
       <c r="D86" s="8" t="s">
         <v>25</v>
@@ -11315,7 +11373,7 @@
       <c r="AJ86" s="25"/>
       <c r="BQ86" s="5"/>
     </row>
-    <row r="87" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="35"/>
       <c r="D87" s="8" t="s">
         <v>26</v>
@@ -11353,7 +11411,7 @@
       <c r="AJ87" s="25"/>
       <c r="BQ87" s="5"/>
     </row>
-    <row r="88" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C88" s="35"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
@@ -11408,7 +11466,7 @@
       <c r="BE88" s="10"/>
       <c r="BQ88" s="5"/>
     </row>
-    <row r="89" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C89" s="35"/>
       <c r="D89" s="8"/>
       <c r="E89" s="9"/>
@@ -11442,7 +11500,7 @@
       <c r="AJ89" s="25"/>
       <c r="BQ89" s="5"/>
     </row>
-    <row r="90" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C90" s="35"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
@@ -11476,7 +11534,7 @@
       <c r="AJ90" s="25"/>
       <c r="BQ90" s="5"/>
     </row>
-    <row r="91" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C91" s="35"/>
       <c r="D91" s="8"/>
       <c r="E91" s="9"/>
@@ -11521,7 +11579,7 @@
       <c r="BP91" s="19"/>
       <c r="BQ91" s="93"/>
     </row>
-    <row r="92" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:69" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C92" s="35"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -11564,7 +11622,7 @@
       <c r="BP92" s="6"/>
       <c r="BQ92" s="7"/>
     </row>
-    <row r="93" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C93" s="35"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -11573,7 +11631,7 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="3"/>
     </row>
-    <row r="94" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C94" s="52"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -11606,12 +11664,12 @@
       <c r="AF94" s="2"/>
       <c r="AG94" s="4"/>
     </row>
-    <row r="95" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K95" s="81"/>
       <c r="L95" s="81"/>
       <c r="M95" s="81"/>
     </row>
-    <row r="96" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:69" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C96" s="73" t="s">
         <v>15</v>
       </c>
@@ -11652,7 +11710,7 @@
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
     </row>
-    <row r="97" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C97" s="35"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -11688,7 +11746,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C98" s="35"/>
       <c r="D98" s="85" t="s">
         <v>13</v>
@@ -11741,7 +11799,7 @@
       <c r="AF98" s="89"/>
       <c r="AG98" s="3"/>
     </row>
-    <row r="99" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C99" s="35"/>
       <c r="D99" s="8" t="s">
         <v>22</v>
@@ -11778,7 +11836,7 @@
       <c r="AF99" s="39"/>
       <c r="AG99" s="3"/>
     </row>
-    <row r="100" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C100" s="35"/>
       <c r="D100" s="8" t="s">
         <v>25</v>
@@ -11815,7 +11873,7 @@
       <c r="AF100" s="39"/>
       <c r="AG100" s="3"/>
     </row>
-    <row r="101" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C101" s="35"/>
       <c r="D101" s="8" t="s">
         <v>26</v>
@@ -11852,7 +11910,7 @@
       <c r="AF101" s="39"/>
       <c r="AG101" s="3"/>
     </row>
-    <row r="102" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C102" s="35"/>
       <c r="D102" s="8"/>
       <c r="E102" s="9"/>
@@ -11885,7 +11943,7 @@
       <c r="AF102" s="39"/>
       <c r="AG102" s="3"/>
     </row>
-    <row r="103" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C103" s="35"/>
       <c r="D103" s="8"/>
       <c r="E103" s="9"/>
@@ -11918,7 +11976,7 @@
       <c r="AF103" s="39"/>
       <c r="AG103" s="3"/>
     </row>
-    <row r="104" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C104" s="35"/>
       <c r="D104" s="8"/>
       <c r="E104" s="9"/>
@@ -11951,7 +12009,7 @@
       <c r="AF104" s="39"/>
       <c r="AG104" s="3"/>
     </row>
-    <row r="105" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:34" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C105" s="35"/>
       <c r="D105" s="8"/>
       <c r="E105" s="9"/>
@@ -11984,7 +12042,7 @@
       <c r="AF105" s="39"/>
       <c r="AG105" s="3"/>
     </row>
-    <row r="106" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C106" s="35"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -11993,7 +12051,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="3"/>
     </row>
-    <row r="107" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C107" s="35"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -12002,7 +12060,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="3"/>
     </row>
-    <row r="108" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:34" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C108" s="52"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -12050,17 +12108,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" customWidth="1"/>
-    <col min="3" max="4" width="49.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="4" width="49.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>87</v>
       </c>
@@ -12086,4 +12144,185 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="101"/>
+    <col min="2" max="2" width="12.77734375" style="101" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="101"/>
+    <col min="4" max="4" width="14.109375" style="101" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="101"/>
+    <col min="6" max="6" width="43" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="101"/>
+    <col min="8" max="8" width="29.21875" style="101" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="101"/>
+    <col min="10" max="10" width="17.44140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="101"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="105" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="104"/>
+      <c r="J4" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="104"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="104"/>
+      <c r="L6" s="104"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="104"/>
+      <c r="J7" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="104"/>
+      <c r="J8" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" s="103"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="101" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>